--- a/models/MLP/Meta_Only/metrics.xlsx
+++ b/models/MLP/Meta_Only/metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,40 +500,2049 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.5935477530850333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5</v>
+        <v>0.9952410643240909</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.6757859925038583</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.5776006733202064</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.7810893316195373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.5779925801310992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.5154944485424168</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0.6296186645213193</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.8378150109000312</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.8203740190274793</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0.3929316431322208</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>0.6601220214113043</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5632923165475706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9889374186766352</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7061821121481591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6149294208718873</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7764299485861181</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5297792731569927</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.500755458910439</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.782152855993564</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8416792276549362</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7920593314689973</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7890324133504493</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6922758144353632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5147610033290846</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9849127366449157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7873947233041816</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5694743677512887</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8341601060411312</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.607988873364825</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.41153451995685</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5275816572807723</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8332327158857771</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8418178152203452</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.506089623566754</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.6435040865661332</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5329764902721329</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9845947336481888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8036724958418038</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5648331789626289</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6239757390745502</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6068227586892745</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5322330097087379</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6863588093322606</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8250115341952077</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8356900526864848</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4545551810838281</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5350984229308162</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.650099340770435</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9879164640395054</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7412325061742915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5869221815763219</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7410513417965611</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5921961544798914</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5842904942131535</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7311039588027036</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8244424509730633</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.848870740561364</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3887217140105922</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.672538454453348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5305484971430978</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9824910882784651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7354449915484678</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5411655297461022</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7461138335475579</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6753284606781798</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5316648340047</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5575671761866452</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.832285269386484</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8120175658775942</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6229340500641849</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6657626338206516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5093007258075837</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9863314257782394</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7708914529286397</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5000779305794398</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7913520244215938</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6619144022126543</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5216601449493938</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6519710378117458</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.865965742759265</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7984544713380263</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6627487163029525</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6901438931737077</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5964317984271879</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9929853607528756</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7759947086058646</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.507042324420103</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7685471561696658</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5843891280861998</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5694687162891047</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.67195494770716</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8624706736951635</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8403055991443925</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6206423081723997</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.6209232186025095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5503519759783696</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9913010905142068</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7741637405285529</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4561125765141752</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7720718187660668</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5561322162000895</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4732456850053938</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6861206757843925</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8490051143112368</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8126802605394885</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6031847928814708</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6155450673420053</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4821642948911464</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9866927003434748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7507791367752558</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5277061855670103</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6906034067170174</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.511144276715211</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5454116614557621</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.659909880914065</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7818494430739329</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7806041971216438</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6394639704702295</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6903748733535967</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5437362243966812</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9927215154717485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7759153376938339</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4689576525231324</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.77771529562982</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5353045726288577</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5305556393430935</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7053451327433629</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8297876051074432</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8407498150784888</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.6610036906290115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5911361804995972</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5900836714351898</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9929206145095465</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7417726170353496</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5294006099366684</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7768115359897173</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6401363583080671</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5863540264177537</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6315269509251811</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8545474929928371</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8547242506859764</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.525252727856226</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5529135489812363</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5717745842079767</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9828476265728302</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7399676637025062</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6267115012886598</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8388696979434447</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5517917621079778</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4780703883495145</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5680128720836686</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8259563565686014</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7932559546247512</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6853189250878226</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7291953493726258</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.516269226408677</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9786819956146138</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7214326141193864</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5772843508376289</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7072622107969151</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6522580925861469</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.554395900755124</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5969171359613837</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8622866173886582</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8274517624987945</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6615845503664473</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6705283757338552</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5523627658155421</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9943361795057498</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7680994942961308</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5958232873295642</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7342820986662382</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4972654220059064</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5124705172508365</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6125909237206308</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8136141636141637</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8584348992930741</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.582791686727652</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6720733167541678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5220795720964188</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9906536280809144</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7554258837363121</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4364008541191506</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7376988271208225</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5610903595563287</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5129703108761404</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6911536604987933</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8255085643101836</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8481333478456922</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.624137516046213</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6738897202716703</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6082832615013128</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9930683331504931</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7185242889689131</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.529927940190878</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7206981041131104</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5813666878934478</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4608820359823297</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6423877715205148</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7992114606041731</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8241489949242139</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.6152519255455713</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6234189018072983</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6078723060696531</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9867240692163378</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7685602998456678</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5514608166881443</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7183483290488432</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5933899169620991</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4839981121898597</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7829509251810137</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8317136378360868</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8214642634850224</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7246206244761854</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7140554852077817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5719429280141272</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.986313373206373</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.722729162816485</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5451886678479381</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7208186053984575</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5372526229426682</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4868514023732471</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6897248592115849</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8260238438809868</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8335181597426166</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.59187931311186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5819776677794406</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.549526463960011</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9850287226175047</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7976802305068799</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5169500332557365</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8526434195725534</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6058373575674614</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5235121496352367</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6289925973607982</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.832448730407914</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8400263930791482</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7305007221954744</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7353873077277332</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6073479243587765</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9920875924673561</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7089997795252444</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5482208448713886</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7863863672879177</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5783727612874201</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5254388105703921</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6348318584070796</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.825314232326378</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8631869584243131</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4308408215661105</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6701277771382526</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5574468981202004</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9847554709707701</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7355067244800471</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4963164812784771</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8693063142673522</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5886392365962381</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5259447349586897</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.7362703137570394</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8488396138274681</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8258277739302715</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4988165917843389</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5092759295499021</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5862521515369102</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9943481563463816</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8150304990078636</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5388334608569587</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.771539604755784</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5901425362518574</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5296871628910463</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5989058728881738</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8256127847964582</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8576106109352948</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7127801850960253</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6443421204098078</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5280756241604282</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9871677458864436</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6842571844391055</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5765695473582475</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.762602426092545</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6292576202078465</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5316518338727078</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7178374899436846</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8217426941916737</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.809971421307782</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5755808769771216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.708249107862323</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5315889608885207</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9845622453246174</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8203634011525344</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4678614482873296</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7823899244737265</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6276189208715161</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5165679337392354</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6611457998068877</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8539956641997459</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7680075002554886</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6639183116674692</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7404807957999447</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5320348584183853</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9871333765669285</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.7197192621444843</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5748367354360735</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7851763335475579</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5099876757941826</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.4985562645504676</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.6300273531777957</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8319227654936157</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7813328120730979</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5688181964056482</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.6521422815701622</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5434782608695652</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9891403365277129</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7695612552362755</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4899911159139438</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7971762532133676</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5697268081574203</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5323558526813992</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6415060337892196</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8420193086265961</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8094344750199437</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.5639241014120668</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6319097502014505</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5787161895207699</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9925731025011144</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.7661497758506651</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.488658787048969</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6673562017994858</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6552707365059451</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5293851132686084</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.6833917940466613</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8474565872525056</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8769253359749629</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6238877298097326</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6733694025555428</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5411291403128446</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9950837986499453</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7364107835889855</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.4619946037371134</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.732356603470437</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5318233802396699</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.508373786407767</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6947063555913114</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8501339929911359</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8506829080134303</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.799978601615578</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6836330148497756</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5853488159843863</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9849048852451946</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.7810302246266024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5347418523445293</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7668829342760727</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.6019430396593026</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5767209697767539</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6662761506276151</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8185343001669532</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8255346375839225</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5943668753009148</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6135672837800498</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5460631607025032</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9846945435407203</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7690776806055707</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.472290483637176</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8389701156812339</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5930477539214103</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5173591021144623</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6015897023330652</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8085730302086577</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8539619850241342</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5111721758664955</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7055968688845401</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5593895214162373</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9945568024173783</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.738834423458514</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5824115877576256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5614255302056556</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5394263699986377</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5619215803487451</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6779211584875302</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8458473995639988</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7940186375152318</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7648026315789473</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.5722712098538045</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5333234846480754</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9886737469779301</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7354979054898214</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5361907015141752</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7925771208226222</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5900855090784092</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5325485436893204</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7835559131134353</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8859182201018935</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8580555092880748</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.4005777563793933</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.640842638425233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.540565703900423</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9926390638213962</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7362923905008316</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.4955853334407216</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6394300289203085</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5487637362637363</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.5360760517799353</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7417666934835077</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8015774852509547</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.7790038660132724</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.4175181440467911</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6370668815471394</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4906065052408399</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9851497771275156</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.7552510878513465</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.4019215580312604</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7478406717017516</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5528632267386593</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5621743184685426</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6098229803669134</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8397323764670703</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8381068964138292</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7006499759268175</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5896518375241779</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5579505411969508</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9831760445148651</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7809406922907328</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5106141449197055</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6865159061696658</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6297827581509255</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5413761143361696</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7209042638777152</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8612768607910308</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7681206421274526</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5509066110397947</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7046713479912513</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5571204952899721</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9905418410012788</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.7442728007643125</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.484580136014838</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7872348971722365</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5762627558698387</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.446732605935631</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7116846339501207</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8721096231703518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8100744273303468</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5145819961489089</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.706890756302521</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.6440318685131806</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.9925455028960491</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.7917307268317777</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5223954977448454</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7495983290488432</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5920814601490944</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5552292340884574</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6007787610619468</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8389261909670074</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8473450745588275</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5979600206851049</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6254034764590768</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5369755145651748</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.990885881361275</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.7458057082794308</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5195463514819587</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7893336278920309</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5153460792601063</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.560302049622438</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.6623716814159292</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8014805489295286</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8161211000166563</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6573940334171436</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.6446091861402096</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5172529995296231</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9866189544925484</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.7499294366694108</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.584142209843698</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8084625582516471</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6119846128496648</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5011683396412704</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6710975217251368</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.7894869303032569</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8627271071141346</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.6588830043331728</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7001427650363821</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5583067765439205</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9831263999422317</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.7476122583964137</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.4237631118199908</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6870882872750642</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6070859431185627</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5242816285006814</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6566757843925985</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.8282765493615696</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.824676637249523</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.7312259306803595</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6515482905490964</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5348935154637728</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9907161177527603</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.7748776365106196</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.6125707220008416</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6837945854755784</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.552764392232899</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5565401352970694</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.7229412711182622</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8347854251012147</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8200769696066484</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6468830231065468</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7219523425808679</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.6115140292231105</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9947921801813311</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.8138987285955758</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5690112556378866</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8152213206940874</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6102414467160269</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4763106796116505</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.7266870474658085</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8304534656575471</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.7622336088927072</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.5480839529948822</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6986255324047428</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4789398462917981</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9886534378345802</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.7619894659027906</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5483197084407216</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8085837082262211</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6223521953159963</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.541537216828479</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6785068382944489</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8661137615219245</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8244799291669224</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.490040835250272</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6608863819500402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5253371618728017</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.979152534944054</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6775402799012114</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5838408297306286</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7576731479993573</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5792520628160767</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5441391037244255</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6784422272288381</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8097356158580649</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8569175194060223</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.4875220670839352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.4854563875840471</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5939513694880038</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.988897321137201</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.7425237010362314</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6008395721091652</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7323666452442159</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.6090375397210105</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.522190748576145</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6336637168141592</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8029299283712239</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8134258570251293</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5684170410783056</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6638287095660181</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5679023178110655</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.9903727717224514</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7179040199897112</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.4757557967362673</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7663178823907454</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.6000367508451111</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5617515678171763</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6877747385358004</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8439227654936157</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8035434071762323</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5303273427471117</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6141959249453206</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5952156003174482</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9907480569183703</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.7526934665980746</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5393947326030928</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7670910989717223</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5701259983715574</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.655302049622438</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.6189412711182622</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8091826918357531</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8362795977943561</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5409333262005385</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.5811626568435594</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5493127106444819</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9905939157278173</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7250450471262243</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5661495248067011</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.678171192159383</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6187658495350803</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.5164509169363539</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7407240547063556</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.8296595694554878</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8712358969413786</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.7577881203302484</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6472890526073443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5573894790050479</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.9789991296598159</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.7684758320592732</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6047347855004989</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.7828720070705447</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5756651076720282</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.4944627283198947</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6035983263598327</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8548403976975405</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8236373573151928</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6812710640346653</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.6044165054803352</v>
       </c>
     </row>
   </sheetData>
